--- a/Oficial/Patron_FL_bk.xlsx
+++ b/Oficial/Patron_FL_bk.xlsx
@@ -41,12 +41,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="264">
   <si>
     <t>SOLICITUD  DE SERVICIO EXTERNO A LABORATORIO</t>
   </si>
   <si>
-    <t>N°</t>
+    <t>N°100</t>
   </si>
   <si>
     <t>ANTECEDENTES</t>
@@ -373,7 +373,10 @@
     <t>Adjuntos a R08</t>
   </si>
   <si>
-    <t>Escribir en cada celda, solo 'si', si adjunta algún documento en particular para cada matriz y laboratorio</t>
+    <t>Escribir en cada celda, solo 'si', si adjunta algún documento en particular para cada laboratorio</t>
+  </si>
+  <si>
+    <t>Hay adjuntos?</t>
   </si>
   <si>
     <t>si</t>
@@ -1201,7 +1204,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1523,6 +1526,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1635,15 +1646,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>820440</xdr:colOff>
+      <xdr:colOff>847440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1377360</xdr:colOff>
+      <xdr:colOff>1404000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>772200</xdr:rowOff>
+      <xdr:rowOff>771840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1656,8 +1667,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="820440" y="7560"/>
-          <a:ext cx="556920" cy="764640"/>
+          <a:off x="847440" y="7560"/>
+          <a:ext cx="556560" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1679,8 +1690,8 @@
   </sheetPr>
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16:J24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="A67:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1848,7 +1859,7 @@
       </c>
       <c r="B8" s="14" t="n">
         <f aca="true">+TODAY()</f>
-        <v>42087</v>
+        <v>42089</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -1899,7 +1910,7 @@
       </c>
       <c r="B10" s="20" t="n">
         <f aca="false">+B9-B8</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>14</v>
@@ -3106,104 +3117,84 @@
         <v>27</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="F67" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="H67" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="I67" s="56" t="s">
-        <v>76</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="81"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="80" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
+        <v>111</v>
+      </c>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="81" t="s">
+      <c r="A69" s="83" t="s">
         <v>64</v>
       </c>
       <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="82"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="81" t="s">
+      <c r="A70" s="83" t="s">
         <v>106</v>
       </c>
       <c r="B70" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="64"/>
+        <v>111</v>
+      </c>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="82"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="80" t="s">
         <v>107</v>
       </c>
       <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="82"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="80" t="s">
         <v>49</v>
       </c>
       <c r="B72" s="64"/>
-      <c r="C72" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3246,58 +3237,59 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="J16:J24 A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="A67:B72 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1428571428571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.8571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="36.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.7091836734694"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="B1" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="C1" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="84" t="s">
         <v>115</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="55" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="83"/>
+      <c r="C3" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="85"/>
       <c r="E3" s="55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3305,12 +3297,12 @@
         <v>54</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
-      <c r="E4" s="83" t="s">
-        <v>120</v>
+      <c r="E4" s="85" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,29 +3310,29 @@
         <v>64</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D5" s="55"/>
       <c r="E5" s="55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,89 +3340,89 @@
         <v>106</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="83" t="s">
         <v>131</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="C8" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="85"/>
       <c r="E8" s="55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="55" t="s">
         <v>137</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="55" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" s="55"/>
-      <c r="E11" s="83" t="s">
-        <v>145</v>
+      <c r="E11" s="85" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D12" s="55"/>
-      <c r="E12" s="83" t="s">
-        <v>149</v>
+      <c r="E12" s="85" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3438,29 +3430,29 @@
         <v>107</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D13" s="55"/>
-      <c r="E13" s="83" t="s">
-        <v>152</v>
+      <c r="E13" s="85" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="83" t="s">
         <v>154</v>
       </c>
+      <c r="B14" s="85" t="s">
+        <v>155</v>
+      </c>
       <c r="C14" s="55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D14" s="55"/>
-      <c r="E14" s="83" t="s">
-        <v>156</v>
+      <c r="E14" s="85" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3481,8 +3473,8 @@
   </sheetPr>
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="J16:J24 A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A67:B72 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3497,28 +3489,28 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="D1" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="E1" s="86" t="s">
         <v>162</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>43</v>
@@ -3526,7 +3518,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>43</v>
@@ -3542,7 +3534,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>43</v>
@@ -3550,7 +3542,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>43</v>
@@ -3566,7 +3558,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>43</v>
@@ -3590,7 +3582,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>43</v>
@@ -3598,7 +3590,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>43</v>
@@ -3606,7 +3598,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>43</v>
@@ -3614,7 +3606,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>43</v>
@@ -3622,7 +3614,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>43</v>
@@ -3630,7 +3622,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>43</v>
@@ -3638,7 +3630,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>43</v>
@@ -3646,7 +3638,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>43</v>
@@ -3654,7 +3646,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>43</v>
@@ -3662,7 +3654,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>43</v>
@@ -3678,7 +3670,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>43</v>
@@ -3686,7 +3678,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>43</v>
@@ -3694,7 +3686,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>43</v>
@@ -3702,7 +3694,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>43</v>
@@ -3710,7 +3702,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>107</v>
@@ -3718,7 +3710,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>107</v>
@@ -3729,31 +3721,31 @@
         <v>66</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,20 +3753,20 @@
         <v>61</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>64</v>
@@ -3782,7 +3774,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>64</v>
@@ -3790,7 +3782,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>49</v>
@@ -3798,7 +3790,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>49</v>
@@ -3814,7 +3806,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>49</v>
@@ -3822,7 +3814,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>49</v>
@@ -3830,7 +3822,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>49</v>
@@ -3838,7 +3830,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>49</v>
@@ -3846,7 +3838,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>49</v>
@@ -3854,7 +3846,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>49</v>
@@ -3862,7 +3854,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>49</v>
@@ -3870,7 +3862,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>64</v>
@@ -3878,7 +3870,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>64</v>
@@ -3886,7 +3878,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>64</v>
@@ -3894,7 +3886,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>64</v>
@@ -3902,7 +3894,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>64</v>
@@ -3910,7 +3902,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>64</v>
@@ -3918,7 +3910,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>64</v>
@@ -3926,13 +3918,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E53" s="0" t="str">
         <f aca="false">+VLOOKUP(D53,A1:B121,1)</f>
@@ -3941,7 +3933,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>64</v>
@@ -3949,7 +3941,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>64</v>
@@ -3957,7 +3949,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>64</v>
@@ -3965,7 +3957,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>64</v>
@@ -3973,7 +3965,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>64</v>
@@ -3981,7 +3973,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>64</v>
@@ -3989,7 +3981,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>64</v>
@@ -3997,7 +3989,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>64</v>
@@ -4005,7 +3997,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>64</v>
@@ -4013,7 +4005,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>64</v>
@@ -4021,33 +4013,33 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="B66" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" s="87" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4055,421 +4047,421 @@
       <c r="A68" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="85" t="s">
+      <c r="B68" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B69" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B70" s="85" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B71" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B72" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="B73" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B74" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="B75" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B76" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B77" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B78" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B79" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B80" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B81" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B82" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B83" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="B84" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="B85" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B86" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B87" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B88" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B89" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="B102" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="B102" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="B103" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B103" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B104" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="B104" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B105" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B106" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="B106" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="B107" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="B107" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B108" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B108" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="B109" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="B109" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="B110" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="B110" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B111" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="B111" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="B112" s="85" t="s">
+        <v>253</v>
+      </c>
+      <c r="B112" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="B113" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="B114" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="B114" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="B115" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="B115" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B116" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="B116" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="B117" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="B117" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="B118" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="B118" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="B119" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="B119" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>64</v>
@@ -4477,7 +4469,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>64</v>
@@ -4501,8 +4493,8 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="J16:J24 B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="A67:B72 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4516,24 +4508,24 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="87" t="s">
+      <c r="A1" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="89" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="90" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="64" t="n">
@@ -4544,7 +4536,7 @@
       <c r="E2" s="64"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="64"/>
@@ -4555,7 +4547,7 @@
       <c r="E3" s="64"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="90" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="64"/>
@@ -4566,7 +4558,7 @@
       <c r="E4" s="64"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="90" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="64"/>
